--- a/VerveStacks_ISL/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_ISL/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ISL\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610720C2-4061-4F9D-BAE3-A517C440913C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EFBB4D-671F-422A-92FA-079DE390E77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ISL/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_ISL/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ISL\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EFBB4D-671F-422A-92FA-079DE390E77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49382A5-6561-48EF-8B85-512A4F7C12CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ISL/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_ISL/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ISL\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49382A5-6561-48EF-8B85-512A4F7C12CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2DDFD9-D506-442E-B2EA-C2FC3C19A27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ISL/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_ISL/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ISL\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2DDFD9-D506-442E-B2EA-C2FC3C19A27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051D8041-9622-41AF-BE61-49EED4ED33DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ISL/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_ISL/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ISL\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051D8041-9622-41AF-BE61-49EED4ED33DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9D6307-8A8E-4C52-9BB3-BD99D6B84C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ISL/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_ISL/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ISL\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9D6307-8A8E-4C52-9BB3-BD99D6B84C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C4630F-5C31-409F-93BE-98FA5034728C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ISL/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_ISL/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ISL\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C4630F-5C31-409F-93BE-98FA5034728C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C322F67A-27D2-4E41-B873-289C6AABAF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ISL/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_ISL/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ISL\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C322F67A-27D2-4E41-B873-289C6AABAF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78593853-831F-47AB-AC7C-5C554770AC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ISL/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_ISL/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ISL\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78593853-831F-47AB-AC7C-5C554770AC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F0D209-79D4-4B79-9186-5BA52F761272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ISL/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_ISL/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ISL\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F0D209-79D4-4B79-9186-5BA52F761272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6967B9F0-438D-463B-914F-99232F2048BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ISL/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_ISL/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ISL\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6967B9F0-438D-463B-914F-99232F2048BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09158BC-BEF6-42C5-8E9A-454C94B71149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ISL/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_ISL/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ISL\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09158BC-BEF6-42C5-8E9A-454C94B71149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2B2267-9D80-4B3C-B795-0A8A5B8A2F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ISL/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_ISL/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ISL\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2B2267-9D80-4B3C-B795-0A8A5B8A2F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16B7BC7-EACA-4CDC-B979-F2AE362B4EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ISL/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_ISL/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ISL\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16B7BC7-EACA-4CDC-B979-F2AE362B4EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D644A2C6-C8B8-4A0A-B454-FE687886DA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
